--- a/biology/Biologie cellulaire et moléculaire/TRPV1/TRPV1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/TRPV1/TRPV1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs TRPV1 (sigle anglais pour transient receptor potential vanilloide 1) sont des récepteurs ionotropes activés par des molécules de la famille des vanilloïdes (V) telle que la capsaïcine présente dans le piment. Ces récepteurs interviennent dans les mécanismes nociceptifs et s'activent en réponse à un stimulus thermique (Thermosensation) supérieur à 44 °C.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les récepteurs TRPV1 font partie de la famille des TRP. Cette famille de récepteurs est sensible aux stimuli mécaniques, thermiques (chaud et froid) et à certaines substances chimiques. Les TRP sont classés en sept groupes : TRPM, TRPA, TRPC, TRPML, TRPN, TRPP et TRPV. Les TRPV étant eux-mêmes répartis en cinq classes (TRPV1,TRPV2, TRPV3, TRPV4, ET TRPV5)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récepteurs TRPV1 font partie de la famille des TRP. Cette famille de récepteurs est sensible aux stimuli mécaniques, thermiques (chaud et froid) et à certaines substances chimiques. Les TRP sont classés en sept groupes : TRPM, TRPA, TRPC, TRPML, TRPN, TRPP et TRPV. Les TRPV étant eux-mêmes répartis en cinq classes (TRPV1,TRPV2, TRPV3, TRPV4, ET TRPV5).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les TRPV1 sont des récepteurs de type canaux cations non sélectifs, qui permettent, en réponse à un stimulus, l’entrée des ions Ca2+ (en majorité). 
 Gradient d'affinité de TRPV1 pour les cations : Ca2+&gt;Mg2+&gt;Na+ &gt;K+ &gt;Cs+. C’est un récepteur membranaire de nature protéique constitué par un enchainement de 839 acides aminés et dont le poids moléculaire est de 94 938 Da. Le gène codant ce récepteur se situe au niveau du segment p 13.2 du chromosome 17 humain. Les TRPV1 sont des tétramères et la région transmembranaire du récepteur est formée par les résidus amino-acyles 433 à 684 qui constituent 6 segments hélicoïdaux transmembranaires (S1-S6). Un petit domaine hydrophobe situé entre les segments S5 et S6 forme le pore du canal, à travers lequel peuvent pénétrer les ions.
@@ -577,14 +593,14 @@
           <t>Localisation et mécanisme d'activation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les TRPV1 sont localisés au niveau de l'extrémité périphérique des neurones sensitifs de petit diamètre. Ce sont des récepteurs sensoriels exprimés au niveau de l'enveloppe cutanée, des muqueuses et dans certaines régions du système nerveux central.
 Ils sont activés par une chaleur nociceptive supérieure à 44 °C, un pH bas, ainsi que par les métabolites d’acides linoléiques oxydés (en anglais, oxidized linoleic acid metabolites d'où l'acronyme OLAM) synthétisés lors de brûlures, et de manière générale par d'autres substances appartenant à la famille des vanilloïdes (dont la capsaïcine présente dans le piment).
 Lorsque le TRPV1 est soumis à un de ces stimuli, le récepteur est activé et change de conformation ce qui entraîne une ouverture du canal-cation. Les ions Ca++ et Na+ entrent massivement dans le cytoplasme de la fibre nerveuse ce qui crée une dépolarisation. Lorsque la dépolarisation atteint une valeur seuil, elle entraîne le déclenchement d'un potentiel d'action (PA). 
 Par exemple une faible concentration en H+ ne déclenchera pas de PA, pour cela il faut une acidité suffisamment forte. Celui-ci va alors se propager le long de la fibre sensitive (transmission influx nerveux) pour aller jusqu'au système nerveux central où l'information sera traitée et interprétée comme étant douloureuse.
-Activation par des substances exogènes
-Au cours de l'évolution, différentes espèces animales et végétales ont acquis la synthèse d'analogues structuraux aux OLAM permettant d'infliger une sensation de brûlure à un adversaire ou prédateur en activant le TRPV1. Ainsi, les différentes variétés de piments produisent des capsaicinoïdes activant le TRPV1. De même, le venin de l'araignée Psalmopoeus cambridgei, originaire de Trinité-et-Tobago, contient des toxines activant le TRPV1[6].
 </t>
         </is>
       </c>
@@ -610,10 +626,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Localisation et mécanisme d'activation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activation par des substances exogènes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l'évolution, différentes espèces animales et végétales ont acquis la synthèse d'analogues structuraux aux OLAM permettant d'infliger une sensation de brûlure à un adversaire ou prédateur en activant le TRPV1. Ainsi, les différentes variétés de piments produisent des capsaicinoïdes activant le TRPV1. De même, le venin de l'araignée Psalmopoeus cambridgei, originaire de Trinité-et-Tobago, contient des toxines activant le TRPV1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TRPV1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/TRPV1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Rôle dans l'inflammation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d’une lésion tissulaire, quelle qu'en soit la nature, une réaction inflammatoire se produit.
 Cette réaction inflammatoire entraîne une acidose locale, due à une forte libération de H+ dans le milieu. Cet excès de protons ainsi que la bradykinine (polypeptide endogène) et l'ATP, libérés sur le site de l'inflammation, sensibilisent les TRPV1 et provoquent une diminution du seuil d'activation à 34 °C (en milieu neutre, le récepteur ne s'active qu'à partir de 44 °C).
@@ -626,31 +681,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>TRPV1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/TRPV1</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Implication clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La capsaïcine, molécule activatrice des TRPV1 naturellement présente dans le piment, est utilisée dans les traitements thérapeutiques notamment sous forme de crème.
 Son mode d’action est biphasique : elle engendre d’abord une irritation (brûlure) due à la stimulation de TRPV1. Puis les fibres sensorielles exprimant ce récepteur se désensibilisent. En effet les TRPV1 apparaissent et disparaissent naturellement à la surface membranaire selon un cycle de renouvellement nécessaire à leur fonctionnement. Quand ils sont saturés (stimulés par un excès de capsaïcine) ce recyclage diminue et ils apparaissent de moins en moins à la surface des fibres, provoquant ainsi un effet analgésique. 
@@ -658,39 +715,8 @@
 La capsaïcine est notamment utilisée dans des crèmes à application locale pour soulager les douleurs arthrosiques, neuropathiques, diabétiques et neurologiques.
 Dans le cas d’un diabète sucré, on rencontre fréquemment une complication nerveuse de type neuropathie diabétique périphérique. Cette pathologie entraîne une désensibilisation à la douleur thermique et tactile, ceci serait dû à une modification de l’expression des TRPV1 et TRPA1. SL’insuline et IGF-1, par l’intermédiaire d’un récepteur à l’IGF-1, activeraient l’enzyme PKC impliquée dans l’expression des TRPV1. Ainsi en l'absence d’insuline, il y a diminution de la quantité de trpv1.
 Les TRPV1 seraient également impliqués dans l’asthme d’effort, et plus précisément dans le phénomène de bronchoconstriction. Lors de la pratique physique par temps humide et froid, ou par temps sec et chaud, ces variations de température ambiante intra throracique (pulmonaire) aboutissent à l’activation des récepteurs TRPV1 situés sur les fibres C. Pour réguler ces variations de température, et réduire l’effet bronchoconstricteur, le système respiratoire augmente le nombre d’inspiration/expiration par minute, aboutissant à l’hyperventilation.
-Les récepteurs TRPV1 pourraient être impliqués dans le mécanisme de l'hyperacousie[7]. 
-Au niveau cardiaque, le cœur présente des fibres afférentes épicardiaques exprimant le récepteur TRPV1 ayant un rôle sur les mécanismes de sympathoexcitation durant l'insuffisance cardiaque[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TRPV1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/TRPV1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Historique</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine a été étudiée et ses rôles mis en évidence par l'équipe de David Julius qui a reçu le Prix Nobel de physiologie et de médecine pour ses travaux concernant les récepteurs à la température.
+Les récepteurs TRPV1 pourraient être impliqués dans le mécanisme de l'hyperacousie. 
+Au niveau cardiaque, le cœur présente des fibres afférentes épicardiaques exprimant le récepteur TRPV1 ayant un rôle sur les mécanismes de sympathoexcitation durant l'insuffisance cardiaque.
 </t>
         </is>
       </c>
@@ -716,10 +742,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine a été étudiée et ses rôles mis en évidence par l'équipe de David Julius qui a reçu le Prix Nobel de physiologie et de médecine pour ses travaux concernant les récepteurs à la température.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TRPV1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/TRPV1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Revue médecine sciences numéro 6-7 p 643 &gt; 766 volume 19 Article p 649-661 sur « l’hypersensibilité à la chaleur au cours de l’inflammation : le rôle du récepteur TRPV1 » de Bernard Calvino (juin-juillet 2003)
 Revue Pour la science n°366 – Article p 54-61 « pourquoi le piment brûle » de Bernard Calvino et Marie Conrath (Avril 2008)
